--- a/biology/Botanique/Dodecadenia/Dodecadenia.xlsx
+++ b/biology/Botanique/Dodecadenia/Dodecadenia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dodecadenia, ou dodécadénie[1], est un genre d'arbres de la famille des lauracées, tribu des trétanthérées, à fleurs hermaphrodites généralement solitaires. Il est présent de l'Himalaya à l'Inde orientale, dans les forêts humides tropicales et subtropicales, parfois associé avec l'espèce Tsuga (entre 2 000 et 2 600 mètres d'altitude). Il a été décrit par Nees von Esenbeck en 1831[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dodecadenia, ou dodécadénie, est un genre d'arbres de la famille des lauracées, tribu des trétanthérées, à fleurs hermaphrodites généralement solitaires. Il est présent de l'Himalaya à l'Inde orientale, dans les forêts humides tropicales et subtropicales, parfois associé avec l'espèce Tsuga (entre 2 000 et 2 600 mètres d'altitude). Il a été décrit par Nees von Esenbeck en 1831.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les arbres de ce genre sont dioïques, à feuillage persistant dont les feuilles sont alternes. Ses inflorescences se produisent en forme d'ombelles solitaires ou groupées aux axilles des feuilles.
 </t>
@@ -542,11 +556,13 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dodecadenia grandiflora Nees (espèce type)
 Dodecadenia griffithii  Hook.f.
-NB: Dodecadenia paniculata  Hook. f. est considérée maintenant comme synonyme de l'espèce Cinnadenia paniculata (Hook. f.) Kosterm[3].
+NB: Dodecadenia paniculata  Hook. f. est considérée maintenant comme synonyme de l'espèce Cinnadenia paniculata (Hook. f.) Kosterm.
 </t>
         </is>
       </c>
